--- a/output2/【河洛話注音】金剛般若波羅蜜經020.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88A140AC-B18C-4332-864A-D0C72887C463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D96E177-2D36-47CA-92BA-0C8C817DEF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="5475" yWindow="3945" windowWidth="31875" windowHeight="11295" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -3278,7 +3278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
